--- a/data/trans_orig/P3A_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{069953E4-1F26-4CFB-AF01-CA28C6001608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75600BC1-ACF9-4204-8985-F9E910E08A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6258AE06-6F4C-43CB-B8A7-BE87EA2BDD1D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E6CA90CE-C41E-43F9-8207-AE716E4CC18B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="519">
   <si>
     <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -68,10 +68,10 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
-  </si>
-  <si>
-    <t>SÍ</t>
+    <t>16-24</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,83%</t>
@@ -101,7 +101,7 @@
     <t>3,27%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>97,17%</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>3,17%</t>
@@ -191,7 +191,7 @@
     <t>98,2%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>5,27%</t>
@@ -248,7 +248,7 @@
     <t>97,16%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -305,7 +305,7 @@
     <t>98,04%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -356,61 +356,118 @@
     <t>98,32%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>3,41%</t>
@@ -584,9 +641,6 @@
     <t>4,05%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
     <t>4,02%</t>
   </si>
   <si>
@@ -608,9 +662,6 @@
     <t>95,98%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
     <t>97,59%</t>
   </si>
   <si>
@@ -725,60 +776,111 @@
     <t>97,49%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
     <t>4,5%</t>
   </si>
   <si>
@@ -806,9 +908,6 @@
     <t>95,5%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
     <t>95,45%</t>
   </si>
   <si>
@@ -1034,58 +1133,94 @@
     <t>96,08%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>2,43%</t>
@@ -1121,334 +1256,346 @@
     <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>7,25%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +2007,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727A55F4-1412-4E11-A62B-D05F2BC224AF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C93F69-EC60-48D1-97A3-1A2AEE265370}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2682,7 +2829,7 @@
         <v>767</v>
       </c>
       <c r="N17" s="7">
-        <v>767981</v>
+        <v>767980</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -2733,7 +2880,7 @@
         <v>787</v>
       </c>
       <c r="N18" s="7">
-        <v>789682</v>
+        <v>789681</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2753,10 +2900,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>27614</v>
+        <v>8547</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2768,10 +2915,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>53891</v>
+        <v>19036</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2783,10 +2930,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="N19" s="7">
-        <v>81505</v>
+        <v>27583</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2804,10 +2951,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>493</v>
+        <v>294</v>
       </c>
       <c r="D20" s="7">
-        <v>474852</v>
+        <v>284036</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2819,10 +2966,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>611</v>
+        <v>351</v>
       </c>
       <c r="I20" s="7">
-        <v>622951</v>
+        <v>323898</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2834,10 +2981,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>1104</v>
+        <v>645</v>
       </c>
       <c r="N20" s="7">
-        <v>1097803</v>
+        <v>607934</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2855,10 +3002,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2870,10 +3017,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2885,10 +3032,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2902,55 +3049,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7">
+        <v>19067</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="7">
+        <v>30</v>
+      </c>
+      <c r="I22" s="7">
+        <v>34855</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="7">
+        <v>51</v>
+      </c>
+      <c r="N22" s="7">
+        <v>53922</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="D22" s="7">
-        <v>132436</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="7">
-        <v>102</v>
-      </c>
-      <c r="I22" s="7">
-        <v>106285</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M22" s="7">
-        <v>235</v>
-      </c>
-      <c r="N22" s="7">
-        <v>238721</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,49 +3106,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3080</v>
+        <v>199</v>
       </c>
       <c r="D23" s="7">
-        <v>3143226</v>
+        <v>190816</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>3191</v>
+        <v>260</v>
       </c>
       <c r="I23" s="7">
-        <v>3268361</v>
+        <v>299053</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>6271</v>
+        <v>459</v>
       </c>
       <c r="N23" s="7">
-        <v>6411586</v>
+        <v>489869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,63 +3157,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>133</v>
+      </c>
+      <c r="D25" s="7">
+        <v>132436</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="7">
+        <v>102</v>
+      </c>
+      <c r="I25" s="7">
+        <v>106285</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" s="7">
+        <v>235</v>
+      </c>
+      <c r="N25" s="7">
+        <v>238721</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3080</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3143225</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3191</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3268360</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6271</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6411586</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
-        <v>3275662</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3275661</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3293</v>
       </c>
-      <c r="I24" s="7">
-        <v>3374646</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3374645</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6506</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6650307</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3079,8 +3382,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B40F45-6B6B-48D8-B707-0B403B52A835}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61409E89-0D14-4210-A5F2-D4C17AA65106}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3096,7 +3399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3203,13 +3506,13 @@
         <v>10972</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3218,13 +3521,13 @@
         <v>7377</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3233,13 +3536,13 @@
         <v>18349</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3557,13 @@
         <v>443174</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>414</v>
@@ -3269,13 +3572,13 @@
         <v>422853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>849</v>
@@ -3284,13 +3587,13 @@
         <v>866027</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3661,13 @@
         <v>12543</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3373,13 +3676,13 @@
         <v>10329</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -3388,13 +3691,13 @@
         <v>22872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3712,13 @@
         <v>674544</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>561</v>
@@ -3424,13 +3727,13 @@
         <v>599926</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>1216</v>
@@ -3439,13 +3742,13 @@
         <v>1274470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3816,13 @@
         <v>16312</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3528,13 +3831,13 @@
         <v>17191</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -3543,13 +3846,13 @@
         <v>33503</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3867,13 @@
         <v>665551</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -3579,25 +3882,25 @@
         <v>692657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="M11" s="7">
         <v>1288</v>
       </c>
       <c r="N11" s="7">
-        <v>1358207</v>
+        <v>1358208</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>23</v>
@@ -3642,7 +3945,7 @@
         <v>1317</v>
       </c>
       <c r="N12" s="7">
-        <v>1391710</v>
+        <v>1391711</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3668,13 +3971,13 @@
         <v>16863</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3683,13 +3986,13 @@
         <v>16575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3698,13 +4001,13 @@
         <v>33438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +4022,13 @@
         <v>597754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>526</v>
@@ -3734,13 +4037,13 @@
         <v>599624</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>1059</v>
@@ -3749,13 +4052,13 @@
         <v>1197378</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +4126,13 @@
         <v>12668</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -3838,13 +4141,13 @@
         <v>19187</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -3853,13 +4156,13 @@
         <v>31854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +4177,13 @@
         <v>415702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>389</v>
@@ -3889,13 +4192,13 @@
         <v>428613</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>769</v>
@@ -3904,13 +4207,13 @@
         <v>844316</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,49 +4275,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>61646</v>
+        <v>18779</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>91207</v>
+        <v>16389</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M19" s="7">
+        <v>33</v>
+      </c>
+      <c r="N19" s="7">
+        <v>35168</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M19" s="7">
-        <v>140</v>
-      </c>
-      <c r="N19" s="7">
-        <v>152854</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,49 +4326,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>447</v>
+        <v>265</v>
       </c>
       <c r="D20" s="7">
-        <v>497991</v>
+        <v>291007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
-        <v>610</v>
+        <v>327</v>
       </c>
       <c r="I20" s="7">
-        <v>650769</v>
+        <v>336608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="M20" s="7">
-        <v>1057</v>
+        <v>592</v>
       </c>
       <c r="N20" s="7">
-        <v>1148759</v>
+        <v>627615</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,10 +4377,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4089,10 +4392,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>741976</v>
+        <v>352997</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4104,10 +4407,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>1301613</v>
+        <v>662783</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4121,55 +4424,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7">
-        <v>131005</v>
+        <v>42867</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H22" s="7">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="I22" s="7">
-        <v>161866</v>
+        <v>74818</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
-        <v>266</v>
+        <v>107</v>
       </c>
       <c r="N22" s="7">
-        <v>292870</v>
+        <v>117686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,49 +4481,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3087</v>
+        <v>182</v>
       </c>
       <c r="D23" s="7">
-        <v>3294714</v>
+        <v>206984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
-        <v>3151</v>
+        <v>283</v>
       </c>
       <c r="I23" s="7">
-        <v>3394442</v>
+        <v>314161</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
-        <v>6238</v>
+        <v>465</v>
       </c>
       <c r="N23" s="7">
-        <v>6689157</v>
+        <v>521144</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,63 +4532,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>121</v>
+      </c>
+      <c r="D25" s="7">
+        <v>131005</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H25" s="7">
+        <v>145</v>
+      </c>
+      <c r="I25" s="7">
+        <v>161866</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M25" s="7">
+        <v>266</v>
+      </c>
+      <c r="N25" s="7">
+        <v>292870</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3087</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3294714</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3151</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3394442</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6238</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6689157</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3208</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3425719</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3556308</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6982027</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4298,8 +4757,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAFF430-2D11-4EAC-8574-3EA5395B7A7F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E86DDC-B523-476A-A6BA-A8853D3E6E4D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4315,7 +4774,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4422,13 +4881,13 @@
         <v>7056</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4437,13 +4896,13 @@
         <v>3972</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4452,13 +4911,13 @@
         <v>11028</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4932,13 @@
         <v>410572</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="H5" s="7">
         <v>400</v>
@@ -4488,13 +4947,13 @@
         <v>391783</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="M5" s="7">
         <v>784</v>
@@ -4503,13 +4962,13 @@
         <v>802355</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +5036,13 @@
         <v>2469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4592,13 +5051,13 @@
         <v>7416</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -4607,13 +5066,13 @@
         <v>9885</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +5087,13 @@
         <v>588027</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>571</v>
@@ -4643,13 +5102,13 @@
         <v>555193</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>1136</v>
@@ -4658,13 +5117,13 @@
         <v>1143221</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,7 +5194,7 @@
         <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>89</v>
@@ -4747,13 +5206,13 @@
         <v>7025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -4762,13 +5221,13 @@
         <v>13532</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,7 +5248,7 @@
         <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>658</v>
@@ -4798,13 +5257,13 @@
         <v>653432</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="M11" s="7">
         <v>1287</v>
@@ -4813,13 +5272,13 @@
         <v>1313320</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +5346,13 @@
         <v>6893</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4902,13 +5361,13 @@
         <v>8125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -4917,13 +5376,13 @@
         <v>15017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +5397,13 @@
         <v>636438</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>593</v>
@@ -4953,13 +5412,13 @@
         <v>639911</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>1167</v>
@@ -4968,13 +5427,13 @@
         <v>1276350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,10 +5504,10 @@
         <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5057,13 +5516,13 @@
         <v>6779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -5072,13 +5531,13 @@
         <v>25412</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,10 +5555,10 @@
         <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>426</v>
@@ -5108,13 +5567,13 @@
         <v>488967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>836</v>
@@ -5123,10 +5582,10 @@
         <v>948252</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>104</v>
@@ -5191,49 +5650,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>40600</v>
+        <v>5131</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>331</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="I19" s="7">
-        <v>73599</v>
+        <v>14886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>114199</v>
+        <v>20017</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>338</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,49 +5701,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>579</v>
+        <v>319</v>
       </c>
       <c r="D20" s="7">
-        <v>548942</v>
+        <v>328149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>340</v>
+        <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="H20" s="7">
-        <v>598</v>
+        <v>339</v>
       </c>
       <c r="I20" s="7">
-        <v>703378</v>
+        <v>361922</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="M20" s="7">
-        <v>1177</v>
+        <v>658</v>
       </c>
       <c r="N20" s="7">
-        <v>1252319</v>
+        <v>690070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,10 +5752,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>625</v>
+        <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>589542</v>
+        <v>333280</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5308,10 +5767,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>654</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>776977</v>
+        <v>376808</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5323,10 +5782,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1279</v>
+        <v>677</v>
       </c>
       <c r="N21" s="7">
-        <v>1366518</v>
+        <v>710087</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5340,55 +5799,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D22" s="7">
-        <v>82158</v>
+        <v>35469</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="H22" s="7">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="I22" s="7">
-        <v>106916</v>
+        <v>58713</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>214</v>
+        <v>380</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>57</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="N22" s="7">
-        <v>189073</v>
+        <v>94182</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,49 +5856,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3141</v>
+        <v>260</v>
       </c>
       <c r="D23" s="7">
-        <v>3303151</v>
+        <v>220793</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>87</v>
+        <v>387</v>
       </c>
       <c r="H23" s="7">
-        <v>3246</v>
+        <v>259</v>
       </c>
       <c r="I23" s="7">
-        <v>3432664</v>
+        <v>341456</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>66</v>
+        <v>389</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>224</v>
+        <v>390</v>
       </c>
       <c r="M23" s="7">
-        <v>6387</v>
+        <v>519</v>
       </c>
       <c r="N23" s="7">
-        <v>6735817</v>
+        <v>562249</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,63 +5907,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256262</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>602</v>
+      </c>
+      <c r="N24" s="7">
+        <v>656431</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>82</v>
+      </c>
+      <c r="D25" s="7">
+        <v>82158</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H25" s="7">
+        <v>87</v>
+      </c>
+      <c r="I25" s="7">
+        <v>106916</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="7">
+        <v>169</v>
+      </c>
+      <c r="N25" s="7">
+        <v>189073</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3141</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3303151</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3246</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3432664</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6387</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6735817</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3223</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3385309</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3333</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3539580</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6556</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6924890</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5517,8 +6132,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1C8479-BCFC-4966-9DDC-CF21E0B4ABA3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A4BD82-6DD5-41FE-BE6F-3603C70D0D89}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5534,7 +6149,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5638,46 +6253,46 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>10833</v>
+        <v>11660</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>360</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>6212</v>
+        <v>5796</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>17045</v>
+        <v>17457</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,46 +6304,46 @@
         <v>168</v>
       </c>
       <c r="D5" s="7">
-        <v>366846</v>
+        <v>388327</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>369</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="H5" s="7">
         <v>203</v>
       </c>
       <c r="I5" s="7">
-        <v>348745</v>
+        <v>307404</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="M5" s="7">
         <v>371</v>
       </c>
       <c r="N5" s="7">
-        <v>715591</v>
+        <v>695730</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,7 +6355,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5755,7 +6370,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5770,7 +6385,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5793,46 +6408,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>3121</v>
+        <v>3278</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>4158</v>
+        <v>3719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>7279</v>
+        <v>6996</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,46 +6459,46 @@
         <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>425275</v>
+        <v>420269</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>458</v>
       </c>
       <c r="I8" s="7">
-        <v>495057</v>
+        <v>508374</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="M8" s="7">
         <v>759</v>
       </c>
       <c r="N8" s="7">
-        <v>920332</v>
+        <v>928644</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>391</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,7 +6510,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5910,7 +6525,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5925,7 +6540,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5948,46 +6563,46 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>9807</v>
+        <v>9490</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>6337</v>
+        <v>6155</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>16144</v>
+        <v>15645</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>397</v>
+        <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,46 +6614,46 @@
         <v>536</v>
       </c>
       <c r="D11" s="7">
-        <v>547445</v>
+        <v>526848</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>838</v>
       </c>
       <c r="I11" s="7">
-        <v>604110</v>
+        <v>585847</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>1374</v>
       </c>
       <c r="N11" s="7">
-        <v>1151555</v>
+        <v>1112695</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>403</v>
+        <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,7 +6665,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6065,7 +6680,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6080,7 +6695,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6103,46 +6718,46 @@
         <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>19461</v>
+        <v>18562</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>443</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>21626</v>
+        <v>20064</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>410</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>41087</v>
+        <v>38626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>411</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,46 +6769,46 @@
         <v>646</v>
       </c>
       <c r="D14" s="7">
-        <v>704529</v>
+        <v>869224</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>449</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="H14" s="7">
         <v>1108</v>
       </c>
       <c r="I14" s="7">
-        <v>724884</v>
+        <v>692123</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>416</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="M14" s="7">
         <v>1754</v>
       </c>
       <c r="N14" s="7">
-        <v>1429413</v>
+        <v>1561347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>418</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>453</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,7 +6820,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6220,7 +6835,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746510</v>
+        <v>712187</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6235,7 +6850,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470500</v>
+        <v>1599973</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6258,46 +6873,46 @@
         <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>19972</v>
+        <v>19050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
       </c>
       <c r="I16" s="7">
-        <v>15845</v>
+        <v>14629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>425</v>
+        <v>57</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
       </c>
       <c r="N16" s="7">
-        <v>35818</v>
+        <v>33679</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>428</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,46 +6924,46 @@
         <v>642</v>
       </c>
       <c r="D17" s="7">
-        <v>580185</v>
+        <v>542184</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="H17" s="7">
         <v>977</v>
       </c>
       <c r="I17" s="7">
-        <v>581218</v>
+        <v>533276</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>433</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="M17" s="7">
         <v>1619</v>
       </c>
       <c r="N17" s="7">
-        <v>1161402</v>
+        <v>1075460</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>436</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6975,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6375,7 +6990,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6390,7 +7005,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6410,49 +7025,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>92190</v>
+        <v>24592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
-        <v>311</v>
+        <v>62</v>
       </c>
       <c r="I19" s="7">
-        <v>165191</v>
+        <v>29349</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>439</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
-        <v>454</v>
+        <v>101</v>
       </c>
       <c r="N19" s="7">
-        <v>257381</v>
+        <v>53941</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,49 +7076,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>883</v>
+        <v>529</v>
       </c>
       <c r="D20" s="7">
-        <v>604400</v>
+        <v>342474</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
-        <v>1396</v>
+        <v>764</v>
       </c>
       <c r="I20" s="7">
-        <v>860835</v>
+        <v>578453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>448</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
-        <v>2279</v>
+        <v>1293</v>
       </c>
       <c r="N20" s="7">
-        <v>1465235</v>
+        <v>920928</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,10 +7127,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>568</v>
       </c>
       <c r="D21" s="7">
-        <v>696590</v>
+        <v>367066</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6527,10 +7142,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1026026</v>
+        <v>607802</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6542,10 +7157,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1722616</v>
+        <v>974869</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6559,55 +7174,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="D22" s="7">
-        <v>155384</v>
+        <v>62418</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
-        <v>385</v>
+        <v>249</v>
       </c>
       <c r="I22" s="7">
-        <v>219369</v>
+        <v>119018</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="M22" s="7">
-        <v>583</v>
+        <v>353</v>
       </c>
       <c r="N22" s="7">
-        <v>374753</v>
+        <v>181436</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>34</v>
+        <v>492</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,49 +7231,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3176</v>
+        <v>354</v>
       </c>
       <c r="D23" s="7">
-        <v>3228680</v>
+        <v>220341</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="H23" s="7">
-        <v>4980</v>
+        <v>632</v>
       </c>
       <c r="I23" s="7">
-        <v>3614849</v>
+        <v>306813</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="M23" s="7">
-        <v>8156</v>
+        <v>986</v>
       </c>
       <c r="N23" s="7">
-        <v>6843529</v>
+        <v>527154</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,63 +7282,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>198</v>
+      </c>
+      <c r="D25" s="7">
+        <v>149050</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H25" s="7">
+        <v>385</v>
+      </c>
+      <c r="I25" s="7">
+        <v>198729</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="M25" s="7">
+        <v>583</v>
+      </c>
+      <c r="N25" s="7">
+        <v>347779</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3176</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3309668</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4980</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3512291</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8156</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6821959</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384064</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458718</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5365</v>
       </c>
-      <c r="I24" s="7">
-        <v>3834218</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3711020</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8739</v>
       </c>
-      <c r="N24" s="7">
-        <v>7218282</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7169738</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
